--- a/04_Metricas/G7_Calculo de defectos.xlsx
+++ b/04_Metricas/G7_Calculo de defectos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28605"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMESTRE OCT24-MAR25\ASEGURAMIENTO\PARCIAL3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uespe-my.sharepoint.com/personal/aeramos2_espe_edu_ec/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62B8DD37-11F2-48CC-944F-71F27F85E53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FA9163A-4FD9-4C03-87C2-9DD00AF18FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{880D947A-3C66-48E7-A5E0-46177B506D57}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="MicroserviciosCalculoDefectos" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>NUMERO DE PROGRAMAS</t>
   </si>
@@ -47,17 +47,20 @@
     <t>LOC(N)</t>
   </si>
   <si>
-    <t>TOTAL HASTA LA FECHA</t>
+    <t>Conclusion</t>
   </si>
   <si>
     <t>Dd plan</t>
+  </si>
+  <si>
+    <t>TOTAL HASTA LA FECHA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,7 +75,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,8 +112,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -202,11 +211,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -217,9 +250,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
@@ -238,7 +268,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -246,22 +275,32 @@
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFCCFFFF"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -273,8 +312,53 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E8F084-A63A-2658-29FC-8DA8273EC339}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="1304925"/>
+          <a:ext cx="4467225" cy="1685925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -594,24 +678,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282D34AD-49D5-4FBD-9A24-FFA9FFD29ED1}">
-  <dimension ref="C3:P24"/>
+  <dimension ref="C3:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="3:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:20">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="3:20" ht="57.75">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,448 +715,443 @@
       <c r="L4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C5" s="5">
+      <c r="N4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+    </row>
+    <row r="5" spans="3:20">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
         <v>21</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="17">
         <f>1000*D24/E24</f>
         <v>161.29032258064515</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>1</v>
       </c>
-      <c r="K5" s="6">
-        <v>2</v>
-      </c>
-      <c r="L5" s="7">
+      <c r="K5" s="5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9">
+    <row r="6" spans="3:20">
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
         <v>4</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>50</v>
       </c>
-      <c r="J6" s="8">
-        <v>2</v>
-      </c>
-      <c r="K6" s="9">
-        <v>2</v>
-      </c>
-      <c r="L6" s="10">
+      <c r="J6" s="7">
+        <v>2</v>
+      </c>
+      <c r="K6" s="8">
+        <v>2</v>
+      </c>
+      <c r="L6" s="9">
         <v>52</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="13">
+    </row>
+    <row r="7" spans="3:20">
+      <c r="C7" s="11">
         <v>3</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>8</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>64</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>3</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>4</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>61</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C8" s="8">
+    </row>
+    <row r="8" spans="3:20">
+      <c r="C8" s="7">
         <v>4</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>6</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>5</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>4</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>3</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C9" s="13">
+    <row r="9" spans="3:20">
+      <c r="C9" s="11">
         <v>5</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>5</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>11</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>5</v>
       </c>
-      <c r="K9" s="6">
-        <v>2</v>
-      </c>
-      <c r="L9" s="7">
+      <c r="K9" s="5">
+        <v>2</v>
+      </c>
+      <c r="L9" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C10" s="8">
+    <row r="10" spans="3:20">
+      <c r="C10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>4</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>40</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="18">
         <f>K24+H5/1000</f>
         <v>39.161290322580648</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>6</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>1</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C11" s="13">
+    <row r="11" spans="3:20">
+      <c r="C11" s="11">
         <v>7</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>4</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>9</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>7</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>1</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C12" s="8">
+    <row r="12" spans="3:20">
+      <c r="C12" s="7">
         <v>8</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>3</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>10</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>8</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>4</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C13" s="13">
+    <row r="13" spans="3:20">
+      <c r="C13" s="11">
         <v>9</v>
       </c>
-      <c r="D13" s="6">
-        <v>2</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6">
         <v>10</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>9</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>1</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C14" s="8">
+    <row r="14" spans="3:20">
+      <c r="C14" s="7">
         <v>10</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>9</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>21</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="J14" s="8">
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="J14" s="7">
         <v>10</v>
       </c>
-      <c r="K14" s="9">
-        <v>2</v>
-      </c>
-      <c r="L14" s="10">
+      <c r="K14" s="8">
+        <v>2</v>
+      </c>
+      <c r="L14" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C15" s="13">
+    <row r="15" spans="3:20">
+      <c r="C15" s="11">
         <v>11</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>3</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>73</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>11</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>1</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C16" s="8">
+    <row r="16" spans="3:20">
+      <c r="C16" s="7">
         <v>12</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>9</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>62</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>12</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <v>4</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="9">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="13">
+    <row r="17" spans="3:12">
+      <c r="C17" s="11">
         <v>13</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>6</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>28</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>13</v>
       </c>
-      <c r="K17" s="6">
-        <v>2</v>
-      </c>
-      <c r="L17" s="7">
+      <c r="K17" s="5">
+        <v>2</v>
+      </c>
+      <c r="L17" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="8">
+    <row r="18" spans="3:12">
+      <c r="C18" s="7">
         <v>14</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>8</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>53</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>14</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>1</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="9">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="13">
+    <row r="19" spans="3:12">
+      <c r="C19" s="11">
         <v>15</v>
       </c>
-      <c r="D19" s="6">
-        <v>2</v>
-      </c>
-      <c r="E19" s="14">
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+      <c r="E19" s="12">
         <v>5</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>15</v>
       </c>
-      <c r="K19" s="6">
-        <v>2</v>
-      </c>
-      <c r="L19" s="7">
+      <c r="K19" s="5">
+        <v>2</v>
+      </c>
+      <c r="L19" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C20" s="8">
+    <row r="20" spans="3:12">
+      <c r="C20" s="7">
         <v>16</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>5</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>13</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <v>16</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <v>3</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C21" s="13">
+    <row r="21" spans="3:12">
+      <c r="C21" s="11">
         <v>17</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>3</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>61</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>17</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>1</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C22" s="8">
+    <row r="22" spans="3:12">
+      <c r="C22" s="7">
         <v>18</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>5</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>12</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="7">
         <v>18</v>
       </c>
-      <c r="K22" s="9">
-        <v>2</v>
-      </c>
-      <c r="L22" s="10">
+      <c r="K22" s="8">
+        <v>2</v>
+      </c>
+      <c r="L22" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12">
       <c r="C23" s="13">
         <v>19</v>
       </c>
-      <c r="D23" s="6">
-        <v>2</v>
-      </c>
-      <c r="E23" s="14">
+      <c r="D23" s="14">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15">
         <v>10</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>19</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>1</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="3:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C24" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="6">
+    <row r="24" spans="3:12" ht="43.5">
+      <c r="C24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5">
         <f>SUM(D5:D23)</f>
         <v>90</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <f>SUM(E5:E23)</f>
         <v>558</v>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="6">
+      <c r="J24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="5">
         <f>SUM(K5:K23)</f>
         <v>39</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <f>SUM(L5:L23)</f>
         <v>564</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="G14:H14"/>
+    <mergeCell ref="N4:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1306,45 +1386,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92E8D687-A314-42CD-AFFB-C4F457825997}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1954242f-b78b-43af-8e83-5ba0d2119314"/>
-    <ds:schemaRef ds:uri="f74da059-3ed3-4dfd-8238-e917d289bcea"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92E8D687-A314-42CD-AFFB-C4F457825997}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A258B3-C994-44E5-AB94-08C6075EDF8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A258B3-C994-44E5-AB94-08C6075EDF8B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89831927-CA53-413F-9B86-BB4C3159CB55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1954242f-b78b-43af-8e83-5ba0d2119314"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f74da059-3ed3-4dfd-8238-e917d289bcea"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89831927-CA53-413F-9B86-BB4C3159CB55}"/>
 </file>